--- a/2B.Appendices/Appendix_4.xlsx
+++ b/2B.Appendices/Appendix_4.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nbicloud-my.sharepoint.com/personal/denning_nbi_ac_uk/Documents/Bean project/Thesis/Supplementary/chapter3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{78C212C1-9460-284C-96B1-882391E6035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D148C4B7-0C40-6C4D-BB15-07AC58982120}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{78C212C1-9460-284C-96B1-882391E6035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01F9943-0139-2F4E-ABC0-576287A746F9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1018">
   <si>
     <t>Accession</t>
   </si>
@@ -3050,13 +3063,37 @@
   </si>
   <si>
     <t>0.74460339592848</t>
+  </si>
+  <si>
+    <t>Spender</t>
+  </si>
+  <si>
+    <t>No classification</t>
+  </si>
+  <si>
+    <t>Saver</t>
+  </si>
+  <si>
+    <t>Stay-green</t>
+  </si>
+  <si>
+    <t>Prioritised yield</t>
+  </si>
+  <si>
+    <t>Drought susceptible</t>
+  </si>
+  <si>
+    <t>DB control growth</t>
+  </si>
+  <si>
+    <t>Classification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3064,16 +3101,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3081,12 +3161,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3383,10 +3480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV143"/>
+  <dimension ref="A1:AW143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW1:AW1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3394,7 +3491,7 @@
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3539,8 +3636,11 @@
       <c r="AV1" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" t="s">
+        <v>1017</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -3685,8 +3785,11 @@
       <c r="AV2">
         <v>17.057083272709601</v>
       </c>
+      <c r="AW2" s="1" t="s">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3831,8 +3934,11 @@
       <c r="AV3">
         <v>28.364671301609398</v>
       </c>
+      <c r="AW3" s="2" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -3977,8 +4083,11 @@
       <c r="AV4">
         <v>0</v>
       </c>
+      <c r="AW4" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4123,8 +4232,11 @@
       <c r="AV5">
         <v>0</v>
       </c>
+      <c r="AW5" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -4269,8 +4381,11 @@
       <c r="AV6">
         <v>0</v>
       </c>
+      <c r="AW6" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -4415,8 +4530,11 @@
       <c r="AV7">
         <v>0</v>
       </c>
+      <c r="AW7" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -4561,8 +4679,11 @@
       <c r="AV8">
         <v>0</v>
       </c>
+      <c r="AW8" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -4707,8 +4828,11 @@
       <c r="AV9">
         <v>0</v>
       </c>
+      <c r="AW9" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -4853,8 +4977,11 @@
       <c r="AV10">
         <v>0</v>
       </c>
+      <c r="AW10" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -4999,8 +5126,11 @@
       <c r="AV11">
         <v>0</v>
       </c>
+      <c r="AW11" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -5145,8 +5275,11 @@
       <c r="AV12">
         <v>0</v>
       </c>
+      <c r="AW12" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -5291,8 +5424,11 @@
       <c r="AV13">
         <v>0</v>
       </c>
+      <c r="AW13" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -5437,8 +5573,11 @@
       <c r="AV14">
         <v>0</v>
       </c>
+      <c r="AW14" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -5583,8 +5722,11 @@
       <c r="AV15">
         <v>0</v>
       </c>
+      <c r="AW15" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -5729,8 +5871,11 @@
       <c r="AV16">
         <v>0</v>
       </c>
+      <c r="AW16" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -5875,8 +6020,11 @@
       <c r="AV17">
         <v>0</v>
       </c>
+      <c r="AW17" s="4" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -6021,8 +6169,11 @@
       <c r="AV18">
         <v>0</v>
       </c>
+      <c r="AW18" s="4" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -6167,8 +6318,11 @@
       <c r="AV19">
         <v>0</v>
       </c>
+      <c r="AW19" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -6313,8 +6467,11 @@
       <c r="AV20">
         <v>0</v>
       </c>
+      <c r="AW20" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -6459,8 +6616,11 @@
       <c r="AV21">
         <v>41.311752585696702</v>
       </c>
+      <c r="AW21" s="2" t="s">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>188</v>
       </c>
@@ -6605,8 +6765,11 @@
       <c r="AV22">
         <v>65.660832502269301</v>
       </c>
+      <c r="AW22" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -6751,8 +6914,11 @@
       <c r="AV23">
         <v>65.834341224223607</v>
       </c>
+      <c r="AW23" s="2" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -6897,8 +7063,11 @@
       <c r="AV24">
         <v>0</v>
       </c>
+      <c r="AW24" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -7043,8 +7212,11 @@
       <c r="AV25">
         <v>0</v>
       </c>
+      <c r="AW25" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>216</v>
       </c>
@@ -7189,8 +7361,11 @@
       <c r="AV26">
         <v>0</v>
       </c>
+      <c r="AW26" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -7335,8 +7510,11 @@
       <c r="AV27">
         <v>0</v>
       </c>
+      <c r="AW27" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -7481,8 +7659,11 @@
       <c r="AV28">
         <v>0</v>
       </c>
+      <c r="AW28" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -7627,8 +7808,11 @@
       <c r="AV29">
         <v>0</v>
       </c>
+      <c r="AW29" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -7773,8 +7957,11 @@
       <c r="AV30">
         <v>0</v>
       </c>
+      <c r="AW30" s="6" t="s">
+        <v>1015</v>
+      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>250</v>
       </c>
@@ -7919,8 +8106,11 @@
       <c r="AV31">
         <v>0</v>
       </c>
+      <c r="AW31" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>257</v>
       </c>
@@ -8065,8 +8255,11 @@
       <c r="AV32">
         <v>0</v>
       </c>
+      <c r="AW32" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -8211,8 +8404,11 @@
       <c r="AV33">
         <v>0</v>
       </c>
+      <c r="AW33" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>271</v>
       </c>
@@ -8357,8 +8553,11 @@
       <c r="AV34">
         <v>0</v>
       </c>
+      <c r="AW34" s="4" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>278</v>
       </c>
@@ -8503,8 +8702,11 @@
       <c r="AV35">
         <v>0</v>
       </c>
+      <c r="AW35" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>285</v>
       </c>
@@ -8649,8 +8851,11 @@
       <c r="AV36">
         <v>85.943572447967696</v>
       </c>
+      <c r="AW36" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -8795,8 +9000,11 @@
       <c r="AV37">
         <v>6.1131763733994298</v>
       </c>
+      <c r="AW37" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8941,8 +9149,11 @@
       <c r="AV38">
         <v>0</v>
       </c>
+      <c r="AW38" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>306</v>
       </c>
@@ -9087,8 +9298,11 @@
       <c r="AV39">
         <v>0</v>
       </c>
+      <c r="AW39" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>313</v>
       </c>
@@ -9233,8 +9447,11 @@
       <c r="AV40">
         <v>0</v>
       </c>
+      <c r="AW40" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>320</v>
       </c>
@@ -9379,8 +9596,11 @@
       <c r="AV41">
         <v>7.0810828454938797</v>
       </c>
+      <c r="AW41" s="2" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>327</v>
       </c>
@@ -9525,8 +9745,11 @@
       <c r="AV42">
         <v>38.2334478219896</v>
       </c>
+      <c r="AW42" s="5" t="s">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>334</v>
       </c>
@@ -9671,8 +9894,11 @@
       <c r="AV43">
         <v>0</v>
       </c>
+      <c r="AW43" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>341</v>
       </c>
@@ -9817,8 +10043,11 @@
       <c r="AV44">
         <v>0</v>
       </c>
+      <c r="AW44" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>348</v>
       </c>
@@ -9963,8 +10192,11 @@
       <c r="AV45">
         <v>0</v>
       </c>
+      <c r="AW45" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>355</v>
       </c>
@@ -10109,8 +10341,11 @@
       <c r="AV46">
         <v>67.276997499419906</v>
       </c>
+      <c r="AW46" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>362</v>
       </c>
@@ -10255,8 +10490,11 @@
       <c r="AV47">
         <v>0</v>
       </c>
+      <c r="AW47" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>369</v>
       </c>
@@ -10401,8 +10639,11 @@
       <c r="AV48">
         <v>0</v>
       </c>
+      <c r="AW48" s="6" t="s">
+        <v>1015</v>
+      </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>376</v>
       </c>
@@ -10547,8 +10788,11 @@
       <c r="AV49">
         <v>0</v>
       </c>
+      <c r="AW49" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>383</v>
       </c>
@@ -10693,8 +10937,11 @@
       <c r="AV50">
         <v>0</v>
       </c>
+      <c r="AW50" s="6" t="s">
+        <v>1015</v>
+      </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>390</v>
       </c>
@@ -10839,8 +11086,11 @@
       <c r="AV51">
         <v>0</v>
       </c>
+      <c r="AW51" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -10985,8 +11235,11 @@
       <c r="AV52">
         <v>0</v>
       </c>
+      <c r="AW52" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -11131,8 +11384,11 @@
       <c r="AV53">
         <v>0</v>
       </c>
+      <c r="AW53" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -11277,8 +11533,11 @@
       <c r="AV54">
         <v>0</v>
       </c>
+      <c r="AW54" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>415</v>
       </c>
@@ -11423,8 +11682,11 @@
       <c r="AV55">
         <v>15.0226686852467</v>
       </c>
+      <c r="AW55" s="2" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>422</v>
       </c>
@@ -11569,8 +11831,11 @@
       <c r="AV56">
         <v>62.166519309376497</v>
       </c>
+      <c r="AW56" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>429</v>
       </c>
@@ -11715,8 +11980,11 @@
       <c r="AV57">
         <v>0</v>
       </c>
+      <c r="AW57" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>436</v>
       </c>
@@ -11861,8 +12129,11 @@
       <c r="AV58">
         <v>0</v>
       </c>
+      <c r="AW58" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>444</v>
       </c>
@@ -12007,8 +12278,11 @@
       <c r="AV59">
         <v>1.0643444605708801</v>
       </c>
+      <c r="AW59" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>451</v>
       </c>
@@ -12153,8 +12427,11 @@
       <c r="AV60">
         <v>0</v>
       </c>
+      <c r="AW60" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>458</v>
       </c>
@@ -12299,8 +12576,11 @@
       <c r="AV61">
         <v>0</v>
       </c>
+      <c r="AW61" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>465</v>
       </c>
@@ -12445,8 +12725,11 @@
       <c r="AV62">
         <v>0</v>
       </c>
+      <c r="AW62" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>472</v>
       </c>
@@ -12591,8 +12874,11 @@
       <c r="AV63">
         <v>0</v>
       </c>
+      <c r="AW63" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>479</v>
       </c>
@@ -12737,8 +13023,11 @@
       <c r="AV64">
         <v>0</v>
       </c>
+      <c r="AW64" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>486</v>
       </c>
@@ -12883,8 +13172,11 @@
       <c r="AV65">
         <v>0</v>
       </c>
+      <c r="AW65" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>493</v>
       </c>
@@ -13029,8 +13321,11 @@
       <c r="AV66">
         <v>1.2173290368779099</v>
       </c>
+      <c r="AW66" s="5" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>500</v>
       </c>
@@ -13175,8 +13470,11 @@
       <c r="AV67">
         <v>0</v>
       </c>
+      <c r="AW67" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>507</v>
       </c>
@@ -13321,8 +13619,11 @@
       <c r="AV68">
         <v>0</v>
       </c>
+      <c r="AW68" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>513</v>
       </c>
@@ -13467,8 +13768,11 @@
       <c r="AV69">
         <v>0</v>
       </c>
+      <c r="AW69" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -13613,8 +13917,11 @@
       <c r="AV70">
         <v>0</v>
       </c>
+      <c r="AW70" s="6" t="s">
+        <v>1015</v>
+      </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>527</v>
       </c>
@@ -13759,8 +14066,11 @@
       <c r="AV71">
         <v>0</v>
       </c>
+      <c r="AW71" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>533</v>
       </c>
@@ -13905,8 +14215,11 @@
       <c r="AV72">
         <v>10.5339105339105</v>
       </c>
+      <c r="AW72" s="1" t="s">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>540</v>
       </c>
@@ -14051,8 +14364,11 @@
       <c r="AV73">
         <v>0</v>
       </c>
+      <c r="AW73" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>547</v>
       </c>
@@ -14197,8 +14513,11 @@
       <c r="AV74">
         <v>0</v>
       </c>
+      <c r="AW74" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>554</v>
       </c>
@@ -14343,8 +14662,11 @@
       <c r="AV75">
         <v>0</v>
       </c>
+      <c r="AW75" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>560</v>
       </c>
@@ -14489,8 +14811,11 @@
       <c r="AV76">
         <v>0</v>
       </c>
+      <c r="AW76" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>567</v>
       </c>
@@ -14635,8 +14960,11 @@
       <c r="AV77">
         <v>0</v>
       </c>
+      <c r="AW77" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>574</v>
       </c>
@@ -14781,8 +15109,11 @@
       <c r="AV78">
         <v>0</v>
       </c>
+      <c r="AW78" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>581</v>
       </c>
@@ -14927,8 +15258,11 @@
       <c r="AV79">
         <v>0</v>
       </c>
+      <c r="AW79" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>588</v>
       </c>
@@ -15073,8 +15407,11 @@
       <c r="AV80">
         <v>0</v>
       </c>
+      <c r="AW80" s="4" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>595</v>
       </c>
@@ -15219,8 +15556,11 @@
       <c r="AV81">
         <v>0</v>
       </c>
+      <c r="AW81" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>601</v>
       </c>
@@ -15365,8 +15705,11 @@
       <c r="AV82">
         <v>0</v>
       </c>
+      <c r="AW82" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>607</v>
       </c>
@@ -15511,8 +15854,11 @@
       <c r="AV83">
         <v>10.2704678362573</v>
       </c>
+      <c r="AW83" s="2" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>613</v>
       </c>
@@ -15657,8 +16003,11 @@
       <c r="AV84">
         <v>0</v>
       </c>
+      <c r="AW84" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>619</v>
       </c>
@@ -15803,8 +16152,11 @@
       <c r="AV85">
         <v>0</v>
       </c>
+      <c r="AW85" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>625</v>
       </c>
@@ -15949,8 +16301,11 @@
       <c r="AV86">
         <v>0</v>
       </c>
+      <c r="AW86" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>632</v>
       </c>
@@ -16095,8 +16450,11 @@
       <c r="AV87">
         <v>66.744423523391006</v>
       </c>
+      <c r="AW87" s="2" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>637</v>
       </c>
@@ -16241,8 +16599,11 @@
       <c r="AV88">
         <v>0</v>
       </c>
+      <c r="AW88" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>644</v>
       </c>
@@ -16387,8 +16748,11 @@
       <c r="AV89">
         <v>28.683397653656201</v>
       </c>
+      <c r="AW89" s="1" t="s">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>651</v>
       </c>
@@ -16533,8 +16897,11 @@
       <c r="AV90">
         <v>57.912332221724597</v>
       </c>
+      <c r="AW90" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>658</v>
       </c>
@@ -16679,8 +17046,11 @@
       <c r="AV91">
         <v>0</v>
       </c>
+      <c r="AW91" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>664</v>
       </c>
@@ -16825,8 +17195,11 @@
       <c r="AV92">
         <v>0</v>
       </c>
+      <c r="AW92" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>671</v>
       </c>
@@ -16971,8 +17344,11 @@
       <c r="AV93">
         <v>0</v>
       </c>
+      <c r="AW93" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -17117,8 +17493,11 @@
       <c r="AV94">
         <v>-52.9213392948622</v>
       </c>
+      <c r="AW94" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>685</v>
       </c>
@@ -17263,8 +17642,11 @@
       <c r="AV95">
         <v>44.567137704907402</v>
       </c>
+      <c r="AW95" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>692</v>
       </c>
@@ -17409,8 +17791,11 @@
       <c r="AV96">
         <v>55.705573986340497</v>
       </c>
+      <c r="AW96" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>699</v>
       </c>
@@ -17555,8 +17940,11 @@
       <c r="AV97">
         <v>10.531383750245601</v>
       </c>
+      <c r="AW97" s="2" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>706</v>
       </c>
@@ -17701,8 +18089,11 @@
       <c r="AV98">
         <v>110.204297362755</v>
       </c>
+      <c r="AW98" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>713</v>
       </c>
@@ -17847,8 +18238,11 @@
       <c r="AV99">
         <v>7.0746996927173704</v>
       </c>
+      <c r="AW99" s="2" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>720</v>
       </c>
@@ -17993,8 +18387,11 @@
       <c r="AV100">
         <v>0</v>
       </c>
+      <c r="AW100" s="6" t="s">
+        <v>1015</v>
+      </c>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>727</v>
       </c>
@@ -18139,8 +18536,11 @@
       <c r="AV101">
         <v>41.782336653289804</v>
       </c>
+      <c r="AW101" s="2" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>733</v>
       </c>
@@ -18285,8 +18685,11 @@
       <c r="AV102">
         <v>8.6338336829634503</v>
       </c>
+      <c r="AW102" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>738</v>
       </c>
@@ -18431,8 +18834,11 @@
       <c r="AV103">
         <v>10.009333022527001</v>
       </c>
+      <c r="AW103" s="2" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>745</v>
       </c>
@@ -18577,8 +18983,11 @@
       <c r="AV104">
         <v>28.0073095931578</v>
       </c>
+      <c r="AW104" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>752</v>
       </c>
@@ -18723,8 +19132,11 @@
       <c r="AV105">
         <v>49.849079442925103</v>
       </c>
+      <c r="AW105" s="2" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>758</v>
       </c>
@@ -18869,8 +19281,11 @@
       <c r="AV106">
         <v>31.805171885798998</v>
       </c>
+      <c r="AW106" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>765</v>
       </c>
@@ -19015,8 +19430,11 @@
       <c r="AV107">
         <v>3.4243845788119698</v>
       </c>
+      <c r="AW107" s="2" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>772</v>
       </c>
@@ -19161,8 +19579,11 @@
       <c r="AV108">
         <v>92.812163163274505</v>
       </c>
+      <c r="AW108" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>779</v>
       </c>
@@ -19307,8 +19728,11 @@
       <c r="AV109">
         <v>62.191887861242698</v>
       </c>
+      <c r="AW109" s="2" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>786</v>
       </c>
@@ -19453,8 +19877,11 @@
       <c r="AV110">
         <v>15.2752320223931</v>
       </c>
+      <c r="AW110" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>793</v>
       </c>
@@ -19599,8 +20026,11 @@
       <c r="AV111">
         <v>11.6951053812368</v>
       </c>
+      <c r="AW111" s="2" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>799</v>
       </c>
@@ -19745,8 +20175,11 @@
       <c r="AV112">
         <v>20.742198899825699</v>
       </c>
+      <c r="AW112" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="113" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>806</v>
       </c>
@@ -19891,8 +20324,11 @@
       <c r="AV113">
         <v>3.1111111111111098</v>
       </c>
+      <c r="AW113" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>812</v>
       </c>
@@ -20037,8 +20473,11 @@
       <c r="AV114">
         <v>2.8975095785440601</v>
       </c>
+      <c r="AW114" s="4" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>819</v>
       </c>
@@ -20183,8 +20622,11 @@
       <c r="AV115">
         <v>0</v>
       </c>
+      <c r="AW115" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>826</v>
       </c>
@@ -20329,8 +20771,11 @@
       <c r="AV116">
         <v>24.615769460964799</v>
       </c>
+      <c r="AW116" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>833</v>
       </c>
@@ -20475,8 +20920,11 @@
       <c r="AV117">
         <v>52.277172239367701</v>
       </c>
+      <c r="AW117" s="2" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>840</v>
       </c>
@@ -20621,8 +21069,11 @@
       <c r="AV118">
         <v>17.457631021460799</v>
       </c>
+      <c r="AW118" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="119" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>847</v>
       </c>
@@ -20767,8 +21218,11 @@
       <c r="AV119">
         <v>63.783466733106998</v>
       </c>
+      <c r="AW119" s="2" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="120" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>854</v>
       </c>
@@ -20913,8 +21367,11 @@
       <c r="AV120">
         <v>66.372831905265798</v>
       </c>
+      <c r="AW120" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="121" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>861</v>
       </c>
@@ -21059,8 +21516,11 @@
       <c r="AV121">
         <v>98.472829177292098</v>
       </c>
+      <c r="AW121" s="2" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="122" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>868</v>
       </c>
@@ -21205,8 +21665,11 @@
       <c r="AV122">
         <v>46.860062787248602</v>
       </c>
+      <c r="AW122" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="123" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>874</v>
       </c>
@@ -21351,8 +21814,11 @@
       <c r="AV123">
         <v>39.676950984899399</v>
       </c>
+      <c r="AW123" s="2" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="124" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>881</v>
       </c>
@@ -21497,8 +21963,11 @@
       <c r="AV124">
         <v>56.0372855852982</v>
       </c>
+      <c r="AW124" s="7" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="125" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>888</v>
       </c>
@@ -21643,8 +22112,11 @@
       <c r="AV125">
         <v>2.1901709401709399</v>
       </c>
+      <c r="AW125" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="126" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>895</v>
       </c>
@@ -21789,8 +22261,11 @@
       <c r="AV126">
         <v>36.131366070411303</v>
       </c>
+      <c r="AW126" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="127" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>901</v>
       </c>
@@ -21935,8 +22410,11 @@
       <c r="AV127">
         <v>8.2947254955077003</v>
       </c>
+      <c r="AW127" s="2" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="128" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>908</v>
       </c>
@@ -22081,8 +22559,11 @@
       <c r="AV128">
         <v>75.581700251547005</v>
       </c>
+      <c r="AW128" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>915</v>
       </c>
@@ -22227,8 +22708,11 @@
       <c r="AV129">
         <v>8.7634525099313905</v>
       </c>
+      <c r="AW129" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>921</v>
       </c>
@@ -22373,8 +22857,11 @@
       <c r="AV130">
         <v>0</v>
       </c>
+      <c r="AW130" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>928</v>
       </c>
@@ -22519,8 +23006,11 @@
       <c r="AV131">
         <v>0</v>
       </c>
+      <c r="AW131" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>934</v>
       </c>
@@ -22665,8 +23155,11 @@
       <c r="AV132">
         <v>0</v>
       </c>
+      <c r="AW132" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>940</v>
       </c>
@@ -22811,8 +23304,11 @@
       <c r="AV133">
         <v>0</v>
       </c>
+      <c r="AW133" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>947</v>
       </c>
@@ -22957,8 +23453,11 @@
       <c r="AV134">
         <v>74.581608324279102</v>
       </c>
+      <c r="AW134" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>952</v>
       </c>
@@ -23103,8 +23602,11 @@
       <c r="AV135">
         <v>0</v>
       </c>
+      <c r="AW135" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>958</v>
       </c>
@@ -23249,8 +23751,11 @@
       <c r="AV136">
         <v>17.2980170962126</v>
       </c>
+      <c r="AW136" s="5" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>964</v>
       </c>
@@ -23395,8 +23900,11 @@
       <c r="AV137">
         <v>21.225382932166301</v>
       </c>
+      <c r="AW137" s="2" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>971</v>
       </c>
@@ -23541,8 +24049,11 @@
       <c r="AV138">
         <v>116.25464349008701</v>
       </c>
+      <c r="AW138" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>977</v>
       </c>
@@ -23687,8 +24198,11 @@
       <c r="AV139">
         <v>0.85106382978723305</v>
       </c>
+      <c r="AW139" s="2" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>984</v>
       </c>
@@ -23833,8 +24347,11 @@
       <c r="AV140">
         <v>10.1406777417131</v>
       </c>
+      <c r="AW140" s="5" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>991</v>
       </c>
@@ -23979,8 +24496,11 @@
       <c r="AV141">
         <v>9.9647042414012308</v>
       </c>
+      <c r="AW141" s="3" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>998</v>
       </c>
@@ -24125,8 +24645,11 @@
       <c r="AV142">
         <v>0.93718784887478701</v>
       </c>
+      <c r="AW142" s="5" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1003</v>
       </c>
@@ -24270,6 +24793,9 @@
       </c>
       <c r="AV143">
         <v>32.898496244905502</v>
+      </c>
+      <c r="AW143" s="8" t="s">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
